--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -722,7 +722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,7 +774,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -830,35 +830,35 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>414</v>
+        <v>612</v>
       </c>
       <c r="D4" t="n">
-        <v>329</v>
+        <v>591</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -890,23 +890,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -918,23 +918,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -942,18 +942,18 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -970,18 +970,18 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -998,11 +998,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1026,18 +1026,18 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1058,14 +1058,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1086,14 +1086,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1110,11 +1110,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1138,11 +1138,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1166,11 +1166,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1194,11 +1194,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1226,26 +1226,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E18" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1254,51 +1254,51 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E19" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>281</v>
+        <v>930</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1306,27 +1306,27 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>281</v>
+        <v>930</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1334,18 +1334,18 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1124</v>
+        <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>1124</v>
+        <v>930</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1362,18 +1362,18 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1124</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>1124</v>
+        <v>930</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1394,23 +1394,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>197</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>147</v>
+        <v>930</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1422,25 +1422,333 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>945</v>
+      </c>
+      <c r="D25" t="n">
+        <v>930</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>509</v>
+      </c>
+      <c r="D26" t="n">
+        <v>322</v>
+      </c>
+      <c r="E26" t="n">
+        <v>137</v>
+      </c>
+      <c r="F26" t="n">
+        <v>38</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>509</v>
+      </c>
+      <c r="D27" t="n">
+        <v>322</v>
+      </c>
+      <c r="E27" t="n">
+        <v>137</v>
+      </c>
+      <c r="F27" t="n">
+        <v>38</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>509</v>
+      </c>
+      <c r="D28" t="n">
+        <v>322</v>
+      </c>
+      <c r="E28" t="n">
+        <v>137</v>
+      </c>
+      <c r="F28" t="n">
+        <v>38</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>288</v>
+      </c>
+      <c r="D29" t="n">
+        <v>281</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>288</v>
+      </c>
+      <c r="D30" t="n">
+        <v>281</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>288</v>
+      </c>
+      <c r="D31" t="n">
+        <v>281</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1122</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C35" t="n">
         <v>197</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D35" t="n">
+        <v>147</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>50</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>197</v>
+      </c>
+      <c r="D36" t="n">
         <v>19</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>178</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2028,13 +2028,13 @@
         <v>197</v>
       </c>
       <c r="D46" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2056,13 +2056,13 @@
         <v>197</v>
       </c>
       <c r="D47" t="n">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2084,18 +2084,46 @@
         <v>197</v>
       </c>
       <c r="D48" t="n">
+        <v>147</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>50</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>197</v>
+      </c>
+      <c r="D49" t="n">
         <v>19</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>178</v>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>612</v>
       </c>
       <c r="D2" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -897,35 +897,35 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>414</v>
+        <v>612</v>
       </c>
       <c r="D6" t="n">
-        <v>329</v>
+        <v>591</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,27 +1037,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1076,13 +1076,13 @@
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,18 +1177,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1237,14 +1237,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1265,14 +1265,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1293,14 +1293,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1321,14 +1321,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,11 +1541,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1569,11 +1569,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1597,11 +1597,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1625,11 +1625,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1653,11 +1653,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1681,114 +1681,114 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D34" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E34" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D35" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E35" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D36" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E36" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D37" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E37" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H37" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1797,23 +1797,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D38" t="n">
-        <v>281</v>
+        <v>930</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1825,23 +1825,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D39" t="n">
-        <v>281</v>
+        <v>930</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1853,23 +1853,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D40" t="n">
-        <v>281</v>
+        <v>930</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1881,23 +1881,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D41" t="n">
-        <v>281</v>
+        <v>930</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1905,167 +1905,167 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1124</v>
+        <v>509</v>
       </c>
       <c r="D42" t="n">
-        <v>1124</v>
+        <v>322</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1124</v>
+        <v>509</v>
       </c>
       <c r="D43" t="n">
-        <v>1122</v>
+        <v>322</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1124</v>
+        <v>509</v>
       </c>
       <c r="D44" t="n">
-        <v>1124</v>
+        <v>322</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1124</v>
+        <v>509</v>
       </c>
       <c r="D45" t="n">
-        <v>1124</v>
+        <v>322</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="D46" t="n">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F46" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="D47" t="n">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2073,27 +2073,27 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="D48" t="n">
-        <v>147</v>
+        <v>281</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2101,29 +2101,337 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>288</v>
+      </c>
+      <c r="D49" t="n">
+        <v>281</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>288</v>
+      </c>
+      <c r="D50" t="n">
+        <v>281</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>45845</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>288</v>
+      </c>
+      <c r="D51" t="n">
+        <v>281</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1123</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1122</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C57" t="n">
         <v>197</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D57" t="n">
+        <v>112</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>85</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>197</v>
+      </c>
+      <c r="D58" t="n">
+        <v>131</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>66</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>197</v>
+      </c>
+      <c r="D59" t="n">
+        <v>147</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>50</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>197</v>
+      </c>
+      <c r="D60" t="n">
         <v>19</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
         <v>178</v>
       </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,7 +736,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
   </cols>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>612</v>
       </c>
       <c r="D2" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>612</v>
       </c>
       <c r="D3" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -897,30 +897,30 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>612</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>591</v>
+        <v>329</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -985,23 +985,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>1124</v>
       </c>
       <c r="D9" t="n">
-        <v>329</v>
+        <v>1122</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45852</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>329</v>
+        <v>930</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,27 +1037,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>329</v>
+        <v>929</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1076,13 +1076,13 @@
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
@@ -1093,27 +1093,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D13" t="n">
-        <v>930</v>
+        <v>131</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45852</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,18 +1177,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1205,18 +1205,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1233,18 +1233,18 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1261,18 +1261,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45852</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1317,18 +1317,18 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45845</v>
+        <v>45852</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,111 +1541,111 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45847</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D32" t="n">
-        <v>930</v>
+        <v>281</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1653,27 +1653,27 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D33" t="n">
-        <v>930</v>
+        <v>281</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D34" t="n">
-        <v>930</v>
+        <v>281</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1709,27 +1709,27 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45846</v>
+        <v>45852</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>945</v>
+        <v>1124</v>
       </c>
       <c r="D35" t="n">
-        <v>930</v>
+        <v>1123</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1737,27 +1737,27 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>945</v>
+        <v>1124</v>
       </c>
       <c r="D36" t="n">
-        <v>930</v>
+        <v>1123</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1765,18 +1765,18 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>945</v>
+        <v>1124</v>
       </c>
       <c r="D37" t="n">
-        <v>930</v>
+        <v>1124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1793,27 +1793,27 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D38" t="n">
-        <v>930</v>
+        <v>133</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1821,617 +1821,29 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D39" t="n">
-        <v>930</v>
+        <v>112</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>945</v>
-      </c>
-      <c r="D40" t="n">
-        <v>930</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>15</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>945</v>
-      </c>
-      <c r="D41" t="n">
-        <v>930</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>15</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>509</v>
-      </c>
-      <c r="D42" t="n">
-        <v>322</v>
-      </c>
-      <c r="E42" t="n">
-        <v>137</v>
-      </c>
-      <c r="F42" t="n">
-        <v>38</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>509</v>
-      </c>
-      <c r="D43" t="n">
-        <v>322</v>
-      </c>
-      <c r="E43" t="n">
-        <v>137</v>
-      </c>
-      <c r="F43" t="n">
-        <v>38</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>509</v>
-      </c>
-      <c r="D44" t="n">
-        <v>322</v>
-      </c>
-      <c r="E44" t="n">
-        <v>137</v>
-      </c>
-      <c r="F44" t="n">
-        <v>38</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>509</v>
-      </c>
-      <c r="D45" t="n">
-        <v>322</v>
-      </c>
-      <c r="E45" t="n">
-        <v>137</v>
-      </c>
-      <c r="F45" t="n">
-        <v>38</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>509</v>
-      </c>
-      <c r="D46" t="n">
-        <v>322</v>
-      </c>
-      <c r="E46" t="n">
-        <v>137</v>
-      </c>
-      <c r="F46" t="n">
-        <v>38</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>288</v>
-      </c>
-      <c r="D47" t="n">
-        <v>281</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>288</v>
-      </c>
-      <c r="D48" t="n">
-        <v>281</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>288</v>
-      </c>
-      <c r="D49" t="n">
-        <v>281</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>5</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>288</v>
-      </c>
-      <c r="D50" t="n">
-        <v>281</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>5</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>288</v>
-      </c>
-      <c r="D51" t="n">
-        <v>281</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1123</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1124</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1122</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1124</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1124</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>197</v>
-      </c>
-      <c r="D57" t="n">
-        <v>112</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>85</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>197</v>
-      </c>
-      <c r="D58" t="n">
-        <v>131</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>66</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>197</v>
-      </c>
-      <c r="D59" t="n">
-        <v>147</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>50</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>197</v>
-      </c>
-      <c r="D60" t="n">
-        <v>19</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>178</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -736,7 +736,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
   </cols>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>612</v>
       </c>
       <c r="D3" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>612</v>
       </c>
       <c r="D4" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         <v>1124</v>
       </c>
       <c r="D9" t="n">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1048,13 +1048,13 @@
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>15</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1076,13 +1076,13 @@
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1104,13 +1104,13 @@
         <v>197</v>
       </c>
       <c r="D13" t="n">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1720,13 +1720,13 @@
         <v>1124</v>
       </c>
       <c r="D35" t="n">
-        <v>1123</v>
+        <v>1036</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1776,13 +1776,13 @@
         <v>1124</v>
       </c>
       <c r="D37" t="n">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1804,13 +1804,13 @@
         <v>197</v>
       </c>
       <c r="D38" t="n">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1832,13 +1832,13 @@
         <v>197</v>
       </c>
       <c r="D39" t="n">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,18 +785,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>612</v>
+        <v>945</v>
       </c>
       <c r="D2" t="n">
-        <v>591</v>
+        <v>930</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -805,15 +805,15 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>612</v>
       </c>
       <c r="D4" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>612</v>
       </c>
       <c r="D5" t="n">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,27 +897,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D6" t="n">
-        <v>329</v>
+        <v>945</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         <v>1124</v>
       </c>
       <c r="D9" t="n">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1009,11 +1009,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1076,13 +1076,13 @@
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1104,13 +1104,13 @@
         <v>197</v>
       </c>
       <c r="D13" t="n">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,11 +1205,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,11 +1289,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,27 +1373,27 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D23" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1513,35 +1513,35 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D28" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,58 +1569,58 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D30" t="n">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="E30" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D31" t="n">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="E31" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1629,23 +1629,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>288</v>
+        <v>1124</v>
       </c>
       <c r="D32" t="n">
-        <v>281</v>
+        <v>1036</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1657,23 +1657,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>288</v>
+        <v>1124</v>
       </c>
       <c r="D33" t="n">
-        <v>281</v>
+        <v>1123</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="D34" t="n">
-        <v>281</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1709,141 +1709,29 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1124</v>
+        <v>197</v>
       </c>
       <c r="D35" t="n">
-        <v>1036</v>
+        <v>44</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1123</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1123</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>197</v>
-      </c>
-      <c r="D38" t="n">
-        <v>44</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>153</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>197</v>
-      </c>
-      <c r="D39" t="n">
-        <v>133</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>64</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -813,18 +813,18 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>612</v>
+        <v>945</v>
       </c>
       <c r="D3" t="n">
-        <v>591</v>
+        <v>930</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -833,15 +833,15 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>612</v>
       </c>
       <c r="D5" t="n">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -925,27 +925,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>329</v>
+        <v>945</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,27 +981,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1124</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>1123</v>
+        <v>329</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,11 +1037,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,27 +1093,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>197</v>
+        <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>133</v>
+        <v>930</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,18 +1205,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1233,11 +1233,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1261,11 +1261,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1289,11 +1289,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1317,11 +1317,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1377,23 +1377,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>226</v>
+        <v>930</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,27 +1457,27 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D26" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1485,27 +1485,27 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D27" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1517,26 +1517,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E28" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1545,51 +1545,51 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D29" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E29" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="D30" t="n">
-        <v>281</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>192</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1597,27 +1597,27 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>281</v>
+        <v>930</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1625,27 +1625,27 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1124</v>
+        <v>945</v>
       </c>
       <c r="D32" t="n">
-        <v>1036</v>
+        <v>930</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1653,85 +1653,225 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1124</v>
+        <v>509</v>
       </c>
       <c r="D33" t="n">
-        <v>1123</v>
+        <v>322</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>322</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F34" t="n">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>288</v>
+      </c>
+      <c r="D35" t="n">
+        <v>281</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>45852</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>288</v>
+      </c>
+      <c r="D36" t="n">
+        <v>281</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>88</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1123</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
         <v>197</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D39" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>189</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>197</v>
+      </c>
+      <c r="D40" t="n">
         <v>44</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>153</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -841,18 +841,18 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>612</v>
+        <v>945</v>
       </c>
       <c r="D4" t="n">
-        <v>591</v>
+        <v>930</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -861,15 +861,15 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -897,18 +897,18 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>945</v>
+        <v>612</v>
       </c>
       <c r="D6" t="n">
-        <v>945</v>
+        <v>591</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -917,15 +917,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,27 +953,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>329</v>
+        <v>945</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -981,27 +981,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>329</v>
+        <v>945</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45855</v>
+        <v>45853</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,27 +1037,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,11 +1065,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1093,11 +1093,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1121,11 +1121,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45855</v>
+        <v>45854</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1149,11 +1149,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1177,18 +1177,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1205,18 +1205,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1293,14 +1293,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1321,14 +1321,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,27 +1457,27 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>226</v>
+        <v>930</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1485,27 +1485,27 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D27" t="n">
-        <v>226</v>
+        <v>930</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,11 +1541,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1569,27 +1569,27 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>197</v>
+        <v>945</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>930</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1597,11 +1597,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1625,27 +1625,27 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D32" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1653,58 +1653,58 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>509</v>
+        <v>281</v>
       </c>
       <c r="D33" t="n">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="E33" t="n">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>509</v>
+        <v>281</v>
       </c>
       <c r="D34" t="n">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="E34" t="n">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1713,23 +1713,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D35" t="n">
-        <v>281</v>
+        <v>930</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1741,23 +1741,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D36" t="n">
-        <v>281</v>
+        <v>930</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1765,24 +1765,24 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1124</v>
+        <v>197</v>
       </c>
       <c r="D37" t="n">
-        <v>1036</v>
+        <v>85</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1793,24 +1793,24 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1124</v>
+        <v>197</v>
       </c>
       <c r="D38" t="n">
-        <v>1123</v>
+        <v>81</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1832,13 +1832,13 @@
         <v>197</v>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1849,29 +1849,281 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>945</v>
+      </c>
+      <c r="D40" t="n">
+        <v>930</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>15</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>45852</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>945</v>
+      </c>
+      <c r="D41" t="n">
+        <v>930</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>15</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>509</v>
+      </c>
+      <c r="D42" t="n">
+        <v>322</v>
+      </c>
+      <c r="E42" t="n">
+        <v>137</v>
+      </c>
+      <c r="F42" t="n">
+        <v>38</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>509</v>
+      </c>
+      <c r="D43" t="n">
+        <v>322</v>
+      </c>
+      <c r="E43" t="n">
+        <v>137</v>
+      </c>
+      <c r="F43" t="n">
+        <v>38</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>288</v>
+      </c>
+      <c r="D44" t="n">
+        <v>281</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>288</v>
+      </c>
+      <c r="D45" t="n">
+        <v>281</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1036</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>88</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1123</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C48" t="n">
         <v>197</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>189</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>197</v>
+      </c>
+      <c r="D49" t="n">
         <v>44</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>153</v>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -381,56 +381,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>220</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>242</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -723,7 +673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,8 +683,8 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
@@ -785,27 +735,27 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>945</v>
+        <v>612</v>
       </c>
       <c r="D2" t="n">
-        <v>930</v>
+        <v>244</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -813,27 +763,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>945</v>
+        <v>612</v>
       </c>
       <c r="D3" t="n">
-        <v>930</v>
+        <v>244</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -841,7 +791,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -869,46 +819,46 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>612</v>
+        <v>197</v>
       </c>
       <c r="D5" t="n">
-        <v>591</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>612</v>
+        <v>945</v>
       </c>
       <c r="D6" t="n">
-        <v>591</v>
+        <v>930</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -917,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -929,14 +879,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -945,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -981,7 +931,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45854</v>
+        <v>45859</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,27 +959,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>329</v>
+        <v>945</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,27 +987,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>329</v>
+        <v>930</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,7 +1015,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1043,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,11 +1071,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1149,11 +1099,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45853</v>
+        <v>45859</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1177,11 +1127,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1205,11 +1155,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1233,11 +1183,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1261,11 +1211,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1289,18 +1239,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1317,18 +1267,18 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1349,7 +1299,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1377,23 +1327,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D23" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1401,83 +1351,83 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45854</v>
+        <v>45859</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D24" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D25" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D26" t="n">
-        <v>930</v>
+        <v>81</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1485,27 +1435,27 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D27" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1513,27 +1463,27 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D28" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1541,589 +1491,29 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D29" t="n">
-        <v>930</v>
+        <v>85</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>945</v>
-      </c>
-      <c r="D30" t="n">
-        <v>930</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>15</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>945</v>
-      </c>
-      <c r="D31" t="n">
-        <v>930</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>15</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>281</v>
-      </c>
-      <c r="D32" t="n">
-        <v>226</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" t="n">
-        <v>51</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>281</v>
-      </c>
-      <c r="D33" t="n">
-        <v>226</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>51</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>281</v>
-      </c>
-      <c r="D34" t="n">
-        <v>226</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>51</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>945</v>
-      </c>
-      <c r="D35" t="n">
-        <v>930</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>15</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>945</v>
-      </c>
-      <c r="D36" t="n">
-        <v>930</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>15</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>197</v>
-      </c>
-      <c r="D37" t="n">
-        <v>85</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>112</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>197</v>
-      </c>
-      <c r="D38" t="n">
-        <v>81</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>116</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>197</v>
-      </c>
-      <c r="D39" t="n">
-        <v>5</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>192</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>945</v>
-      </c>
-      <c r="D40" t="n">
-        <v>930</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>15</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>945</v>
-      </c>
-      <c r="D41" t="n">
-        <v>930</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>15</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>509</v>
-      </c>
-      <c r="D42" t="n">
-        <v>322</v>
-      </c>
-      <c r="E42" t="n">
-        <v>137</v>
-      </c>
-      <c r="F42" t="n">
-        <v>38</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>509</v>
-      </c>
-      <c r="D43" t="n">
-        <v>322</v>
-      </c>
-      <c r="E43" t="n">
-        <v>137</v>
-      </c>
-      <c r="F43" t="n">
-        <v>38</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>288</v>
-      </c>
-      <c r="D44" t="n">
-        <v>281</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>288</v>
-      </c>
-      <c r="D45" t="n">
-        <v>281</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>5</v>
-      </c>
-      <c r="G45" t="n">
-        <v>2</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1036</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>88</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1123</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>197</v>
-      </c>
-      <c r="D48" t="n">
-        <v>8</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>189</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>197</v>
-      </c>
-      <c r="D49" t="n">
-        <v>44</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>153</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -381,6 +381,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>220</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -673,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,7 +733,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
@@ -735,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -763,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -791,27 +841,27 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>945</v>
+        <v>612</v>
       </c>
       <c r="D4" t="n">
-        <v>930</v>
+        <v>244</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -819,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -830,13 +880,13 @@
         <v>197</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -847,27 +897,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -875,27 +925,27 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -903,18 +953,18 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -923,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -931,27 +981,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -959,18 +1009,18 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -979,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -987,18 +1037,18 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1007,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1015,18 +1065,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1035,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1043,18 +1093,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1063,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1071,11 +1121,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1099,11 +1149,11 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1127,11 +1177,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1155,11 +1205,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1183,11 +1233,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1211,11 +1261,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1239,11 +1289,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1267,11 +1317,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1295,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1323,27 +1373,27 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>226</v>
+        <v>930</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1351,142 +1401,142 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E24" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E25" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="D26" t="n">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F26" t="n">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>281</v>
+        <v>509</v>
       </c>
       <c r="D27" t="n">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="F27" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>281</v>
+        <v>509</v>
       </c>
       <c r="D28" t="n">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="F28" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1495,25 +1545,193 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>281</v>
+      </c>
+      <c r="D29" t="n">
+        <v>226</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>51</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>281</v>
+      </c>
+      <c r="D30" t="n">
+        <v>226</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>51</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>281</v>
+      </c>
+      <c r="D31" t="n">
+        <v>226</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>51</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C32" t="n">
         <v>197</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D32" t="n">
         <v>85</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>112</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D34" t="n">
+        <v>210</v>
+      </c>
+      <c r="E34" t="n">
+        <v>211</v>
+      </c>
+      <c r="F34" t="n">
+        <v>703</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>197</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>191</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>612</v>
       </c>
       <c r="D2" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" t="n">
         <v>164</v>
       </c>
       <c r="F2" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -869,27 +869,27 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>197</v>
+        <v>612</v>
       </c>
       <c r="D5" t="n">
-        <v>81</v>
+        <v>244</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F5" t="n">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,27 +953,27 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -981,35 +981,35 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45860</v>
+        <v>45856</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>929</v>
+        <v>322</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,27 +1037,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,18 +1065,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1093,24 +1093,24 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45859</v>
+        <v>45856</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D13" t="n">
-        <v>945</v>
+        <v>85</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1153,14 +1153,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1181,14 +1181,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1205,11 +1205,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1289,11 +1289,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,30 +1457,30 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E26" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1489,26 +1489,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D27" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E27" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1517,54 +1517,54 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D28" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E28" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>281</v>
+        <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="F29" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1573,26 +1573,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>281</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="F30" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1601,48 +1601,48 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>281</v>
+        <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="F31" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="D32" t="n">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1657,20 +1657,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
+        <v>281</v>
+      </c>
+      <c r="D33" t="n">
+        <v>226</v>
+      </c>
+      <c r="E33" t="n">
         <v>4</v>
       </c>
-      <c r="D33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1685,20 +1685,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1124</v>
+        <v>281</v>
       </c>
       <c r="D34" t="n">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="E34" t="n">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>703</v>
+        <v>51</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1709,29 +1709,141 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D36" t="n">
+        <v>210</v>
+      </c>
+      <c r="E36" t="n">
+        <v>211</v>
+      </c>
+      <c r="F36" t="n">
+        <v>703</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>45859</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D37" t="n">
+        <v>210</v>
+      </c>
+      <c r="E37" t="n">
+        <v>211</v>
+      </c>
+      <c r="F37" t="n">
+        <v>703</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>197</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D39" t="n">
         <v>6</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>191</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>612</v>
       </c>
       <c r="D2" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E2" t="n">
         <v>164</v>
       </c>
       <c r="F2" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>612</v>
       </c>
       <c r="D3" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E3" t="n">
         <v>164</v>
       </c>
       <c r="F3" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,35 +981,35 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>509</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E9" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1048,13 +1048,13 @@
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>15</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1076,13 +1076,13 @@
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
@@ -1093,27 +1093,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>197</v>
+        <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>85</v>
+        <v>930</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,18 +1205,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,11 +1289,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1317,11 +1317,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,111 +1541,111 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D29" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E29" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D30" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E30" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E31" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D32" t="n">
-        <v>226</v>
+        <v>930</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1653,27 +1653,27 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D33" t="n">
-        <v>226</v>
+        <v>930</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,30 +1681,30 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>281</v>
+        <v>509</v>
       </c>
       <c r="D34" t="n">
-        <v>226</v>
+        <v>322</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="F34" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1713,26 +1713,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>509</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1741,26 +1741,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1124</v>
+        <v>509</v>
       </c>
       <c r="D36" t="n">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="E36" t="n">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="F36" t="n">
-        <v>703</v>
+        <v>38</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1769,48 +1769,48 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1124</v>
+        <v>509</v>
       </c>
       <c r="D37" t="n">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="E37" t="n">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="F37" t="n">
-        <v>703</v>
+        <v>38</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C38" t="n">
+        <v>281</v>
+      </c>
+      <c r="D38" t="n">
+        <v>226</v>
+      </c>
+      <c r="E38" t="n">
         <v>4</v>
       </c>
-      <c r="D38" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1821,29 +1821,281 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>281</v>
+      </c>
+      <c r="D39" t="n">
+        <v>226</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>51</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>281</v>
+      </c>
+      <c r="D40" t="n">
+        <v>226</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>51</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>45859</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>281</v>
+      </c>
+      <c r="D41" t="n">
+        <v>226</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>51</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D43" t="n">
+        <v>31</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F43" t="n">
+        <v>68</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D44" t="n">
+        <v>210</v>
+      </c>
+      <c r="E44" t="n">
+        <v>211</v>
+      </c>
+      <c r="F44" t="n">
+        <v>703</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D45" t="n">
+        <v>210</v>
+      </c>
+      <c r="E45" t="n">
+        <v>211</v>
+      </c>
+      <c r="F45" t="n">
+        <v>703</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>197</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D48" t="n">
         <v>6</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>191</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -796,13 +796,13 @@
         <v>612</v>
       </c>
       <c r="D2" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" t="n">
         <v>164</v>
       </c>
       <c r="F2" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>612</v>
       </c>
       <c r="D3" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E3" t="n">
         <v>164</v>
       </c>
       <c r="F3" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>612</v>
       </c>
       <c r="D4" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" t="n">
         <v>164</v>
       </c>
       <c r="F4" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -897,27 +897,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45862</v>
+        <v>45859</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>414</v>
+        <v>612</v>
       </c>
       <c r="D6" t="n">
-        <v>329</v>
+        <v>244</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45862</v>
+        <v>45860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,27 +1037,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>930</v>
+        <v>329</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1076,13 +1076,13 @@
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,18 +1121,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1149,27 +1149,27 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,18 +1177,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1237,14 +1237,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1265,14 +1265,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1293,14 +1293,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1321,14 +1321,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,11 +1457,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45862</v>
+        <v>45859</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1485,11 +1485,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,11 +1541,11 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1569,11 +1569,11 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45862</v>
+        <v>45860</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1597,11 +1597,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1625,11 +1625,11 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1653,11 +1653,11 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1681,114 +1681,114 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D34" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E34" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D35" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E35" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H35" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D36" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E36" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D37" t="n">
-        <v>322</v>
+        <v>930</v>
       </c>
       <c r="E37" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H37" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1797,23 +1797,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D38" t="n">
-        <v>226</v>
+        <v>930</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1825,23 +1825,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D39" t="n">
-        <v>226</v>
+        <v>930</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1853,23 +1853,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D40" t="n">
-        <v>226</v>
+        <v>930</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1881,23 +1881,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>281</v>
+        <v>945</v>
       </c>
       <c r="D41" t="n">
-        <v>226</v>
+        <v>930</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1905,164 +1905,164 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>509</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1124</v>
+        <v>509</v>
       </c>
       <c r="D43" t="n">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="E43" t="n">
-        <v>1025</v>
+        <v>137</v>
       </c>
       <c r="F43" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1124</v>
+        <v>509</v>
       </c>
       <c r="D44" t="n">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="E44" t="n">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="F44" t="n">
-        <v>703</v>
+        <v>38</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1124</v>
+        <v>509</v>
       </c>
       <c r="D45" t="n">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="E45" t="n">
-        <v>211</v>
+        <v>137</v>
       </c>
       <c r="F45" t="n">
-        <v>703</v>
+        <v>38</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>509</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>322</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C47" t="n">
+        <v>281</v>
+      </c>
+      <c r="D47" t="n">
+        <v>226</v>
+      </c>
+      <c r="E47" t="n">
         <v>4</v>
       </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2073,29 +2073,365 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>281</v>
+      </c>
+      <c r="D48" t="n">
+        <v>226</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>51</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>281</v>
+      </c>
+      <c r="D49" t="n">
+        <v>226</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>51</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>281</v>
+      </c>
+      <c r="D50" t="n">
+        <v>226</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>51</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>45859</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>281</v>
+      </c>
+      <c r="D51" t="n">
+        <v>226</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>51</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D53" t="n">
+        <v>210</v>
+      </c>
+      <c r="E53" t="n">
+        <v>211</v>
+      </c>
+      <c r="F53" t="n">
+        <v>703</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D54" t="n">
+        <v>31</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1025</v>
+      </c>
+      <c r="F54" t="n">
+        <v>68</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D55" t="n">
+        <v>210</v>
+      </c>
+      <c r="E55" t="n">
+        <v>211</v>
+      </c>
+      <c r="F55" t="n">
+        <v>703</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1124</v>
+      </c>
+      <c r="D56" t="n">
+        <v>210</v>
+      </c>
+      <c r="E56" t="n">
+        <v>211</v>
+      </c>
+      <c r="F56" t="n">
+        <v>703</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
         <v>197</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D60" t="n">
         <v>6</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
         <v>191</v>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,27 +785,27 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>612</v>
+        <v>414</v>
       </c>
       <c r="D2" t="n">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="E2" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>201</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>612</v>
       </c>
       <c r="D3" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E3" t="n">
         <v>164</v>
       </c>
       <c r="F3" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>612</v>
       </c>
       <c r="D4" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E4" t="n">
         <v>164</v>
       </c>
       <c r="F4" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>612</v>
       </c>
       <c r="D5" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E5" t="n">
         <v>164</v>
       </c>
       <c r="F5" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,27 +897,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45859</v>
+        <v>45866</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>612</v>
+        <v>945</v>
       </c>
       <c r="D6" t="n">
-        <v>244</v>
+        <v>930</v>
       </c>
       <c r="E6" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -985,23 +985,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>1124</v>
       </c>
       <c r="D9" t="n">
-        <v>329</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1025</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45860</v>
+        <v>45866</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>329</v>
+        <v>945</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,27 +1037,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>329</v>
+        <v>930</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45863</v>
+        <v>45862</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,27 +1093,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>945</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>930</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1121,11 +1121,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45861</v>
+        <v>45866</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1149,27 +1149,27 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,18 +1177,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1205,18 +1205,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1233,18 +1233,18 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1261,18 +1261,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45860</v>
+        <v>45866</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1317,18 +1317,18 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45863</v>
+        <v>45862</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,30 +1457,30 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45859</v>
+        <v>45866</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D26" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,27 +1541,27 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45861</v>
+        <v>45866</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D29" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1569,83 +1569,83 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>945</v>
+        <v>1124</v>
       </c>
       <c r="D32" t="n">
-        <v>930</v>
+        <v>591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1653,27 +1653,27 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D33" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D34" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1709,27 +1709,27 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45860</v>
+        <v>45866</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>945</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>930</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1737,27 +1737,27 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>945</v>
+        <v>1124</v>
       </c>
       <c r="D36" t="n">
-        <v>930</v>
+        <v>210</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="G36" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1765,27 +1765,27 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45863</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>945</v>
+        <v>1124</v>
       </c>
       <c r="D37" t="n">
-        <v>930</v>
+        <v>210</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1793,27 +1793,27 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>945</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>930</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1821,617 +1821,29 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>945</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>930</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>945</v>
-      </c>
-      <c r="D40" t="n">
-        <v>930</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>15</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>945</v>
-      </c>
-      <c r="D41" t="n">
-        <v>930</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>15</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>509</v>
-      </c>
-      <c r="D42" t="n">
-        <v>322</v>
-      </c>
-      <c r="E42" t="n">
-        <v>137</v>
-      </c>
-      <c r="F42" t="n">
-        <v>38</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>509</v>
-      </c>
-      <c r="D43" t="n">
-        <v>322</v>
-      </c>
-      <c r="E43" t="n">
-        <v>137</v>
-      </c>
-      <c r="F43" t="n">
-        <v>38</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>509</v>
-      </c>
-      <c r="D44" t="n">
-        <v>322</v>
-      </c>
-      <c r="E44" t="n">
-        <v>137</v>
-      </c>
-      <c r="F44" t="n">
-        <v>38</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>509</v>
-      </c>
-      <c r="D45" t="n">
-        <v>322</v>
-      </c>
-      <c r="E45" t="n">
-        <v>137</v>
-      </c>
-      <c r="F45" t="n">
-        <v>38</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>509</v>
-      </c>
-      <c r="D46" t="n">
-        <v>322</v>
-      </c>
-      <c r="E46" t="n">
-        <v>137</v>
-      </c>
-      <c r="F46" t="n">
-        <v>38</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>281</v>
-      </c>
-      <c r="D47" t="n">
-        <v>226</v>
-      </c>
-      <c r="E47" t="n">
-        <v>4</v>
-      </c>
-      <c r="F47" t="n">
-        <v>51</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>281</v>
-      </c>
-      <c r="D48" t="n">
-        <v>226</v>
-      </c>
-      <c r="E48" t="n">
-        <v>4</v>
-      </c>
-      <c r="F48" t="n">
-        <v>51</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>281</v>
-      </c>
-      <c r="D49" t="n">
-        <v>226</v>
-      </c>
-      <c r="E49" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" t="n">
-        <v>51</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>281</v>
-      </c>
-      <c r="D50" t="n">
-        <v>226</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4</v>
-      </c>
-      <c r="F50" t="n">
-        <v>51</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>281</v>
-      </c>
-      <c r="D51" t="n">
-        <v>226</v>
-      </c>
-      <c r="E51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F51" t="n">
-        <v>51</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>4</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D53" t="n">
-        <v>210</v>
-      </c>
-      <c r="E53" t="n">
-        <v>211</v>
-      </c>
-      <c r="F53" t="n">
-        <v>703</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D54" t="n">
-        <v>31</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1025</v>
-      </c>
-      <c r="F54" t="n">
-        <v>68</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D55" t="n">
-        <v>210</v>
-      </c>
-      <c r="E55" t="n">
-        <v>211</v>
-      </c>
-      <c r="F55" t="n">
-        <v>703</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D56" t="n">
-        <v>210</v>
-      </c>
-      <c r="E56" t="n">
-        <v>211</v>
-      </c>
-      <c r="F56" t="n">
-        <v>703</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>4</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>4</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>4</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>197</v>
-      </c>
-      <c r="D60" t="n">
-        <v>6</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>191</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,7 +735,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         <v>612</v>
       </c>
       <c r="D3" t="n">
-        <v>242</v>
+        <v>494</v>
       </c>
       <c r="E3" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,13 +852,13 @@
         <v>612</v>
       </c>
       <c r="D4" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" t="n">
         <v>164</v>
       </c>
       <c r="F4" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,13 +880,13 @@
         <v>612</v>
       </c>
       <c r="D5" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E5" t="n">
         <v>164</v>
       </c>
       <c r="F5" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         <v>1124</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="E9" t="n">
-        <v>1025</v>
+        <v>211</v>
       </c>
       <c r="F9" t="n">
-        <v>68</v>
+        <v>703</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1625,24 +1625,24 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1124</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>591</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1713,20 +1713,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>1124</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>465</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1765,24 +1765,24 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1124</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>210</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>703</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1816,34 +1816,6 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
         <v>0</v>
       </c>
     </row>
